--- a/StructureDefinition-profile-CapabilityStatement.xlsx
+++ b/StructureDefinition-profile-CapabilityStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5157" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7423718-06:00</t>
+    <t>2026-02-20T11:59:20.741878-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,36 +446,55 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CapabilityStatement.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.versionAlgorithm|0.0.1-snapshot-3}
+    <t>CapabilityStatement.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.identifier}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CapabilityStatement.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.versionAlgorithm[x]` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
+    <t>Cross-version extension for CapabilityStatement.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this CapabilityStatement when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Element `CapabilityStatement.identifier` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>CapabilityStatement.extension:acceptLanguage</t>
+  </si>
+  <si>
+    <t>acceptLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.acceptLanguage}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CapabilityStatement.acceptLanguage from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A list of the languages supported by this implementation that are usefully supported in the ```Accept-Language``` header.</t>
+  </si>
+  <si>
+    <t>Element `CapabilityStatement.acceptLanguage` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
+  </si>
+  <si>
     <t>CapabilityStatement.extension:copyrightLabel</t>
   </si>
   <si>
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
 </t>
   </si>
   <si>
@@ -485,26 +504,28 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `CapabilityStatement.copyrightLabel` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.extension:acceptLanguage</t>
-  </si>
-  <si>
-    <t>acceptLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.acceptLanguage|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CapabilityStatement.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `CapabilityStatement.copyrightLabel` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
+  </si>
+  <si>
+    <t>CapabilityStatement.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CapabilityStatement.acceptLanguage from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A list of the languages supported by this implementation that are usefully supported in the ```Accept-Language``` header.</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.acceptLanguage` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
+    <t>Cross-version extension for CapabilityStatement.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CapabilityStatement.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `CapabilityStatement.versionAlgorithm[x]` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
   </si>
   <si>
     <t>CapabilityStatement.modifierExtension</t>
@@ -929,7 +950,7 @@
     <t>software</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.software|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.software}
 </t>
   </si>
   <si>
@@ -1011,7 +1032,7 @@
     <t>implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.implementation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.implementation}
 </t>
   </si>
   <si>
@@ -1095,7 +1116,7 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.fhirVersion|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.fhirVersion}
 </t>
   </si>
   <si>
@@ -1189,7 +1210,7 @@
     <t>rest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.rest|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.rest}
 </t>
   </si>
   <si>
@@ -1778,7 +1799,7 @@
     <t>messaging</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.messaging|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.messaging}
 </t>
   </si>
   <si>
@@ -1936,7 +1957,7 @@
     <t>document</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.document|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.document}
 </t>
   </si>
   <si>
@@ -2289,7 +2310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN143"/>
+  <dimension ref="A1:AN144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2308,7 +2329,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3385,7 +3406,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -3501,7 +3522,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3617,7 +3638,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3697,7 +3718,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>138</v>
@@ -3720,43 +3741,43 @@
         <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3804,7 +3825,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3819,7 +3840,7 @@
         <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3833,33 +3854,33 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>166</v>
@@ -3920,28 +3941,28 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3949,10 +3970,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3975,18 +3996,20 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -4034,7 +4057,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4052,10 +4075,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -4063,10 +4086,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4089,7 +4112,7 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
@@ -4100,9 +4123,7 @@
       <c r="N16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -4150,7 +4171,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4159,7 +4180,7 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>99</v>
@@ -4168,10 +4189,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -4205,7 +4226,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>186</v>
@@ -4216,7 +4237,9 @@
       <c r="N17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -4273,7 +4296,7 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -4282,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4293,10 +4316,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4304,7 +4327,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -4313,22 +4336,22 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4354,13 +4377,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -4378,10 +4401,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>87</v>
@@ -4396,10 +4419,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4407,10 +4430,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4418,7 +4441,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
@@ -4427,26 +4450,24 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4470,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4494,10 +4515,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>87</v>
@@ -4512,10 +4533,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4523,18 +4544,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -4549,18 +4570,20 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4608,10 +4631,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>87</v>
@@ -4626,10 +4649,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4637,18 +4660,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4663,7 +4686,7 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>216</v>
@@ -4674,9 +4697,7 @@
       <c r="N21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4724,10 +4745,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -4742,10 +4763,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4753,10 +4774,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4767,7 +4788,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4779,18 +4800,20 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4838,13 +4861,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4856,10 +4879,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4881,7 +4904,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4890,7 +4913,7 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>229</v>
@@ -4958,10 +4981,10 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>99</v>
@@ -4970,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4981,10 +5004,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4995,7 +5018,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -5004,23 +5027,21 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -5068,16 +5089,16 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -5086,7 +5107,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -5097,10 +5118,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5123,18 +5144,20 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5158,13 +5181,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -5182,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5200,7 +5223,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5211,10 +5234,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5225,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -5234,19 +5257,19 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5272,13 +5295,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5296,13 +5319,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -5314,25 +5337,25 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5351,18 +5374,18 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5410,7 +5433,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5428,13 +5451,13 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="28">
@@ -5446,11 +5469,11 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -5462,20 +5485,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5500,13 +5523,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5527,13 +5550,13 @@
         <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>99</v>
@@ -5542,21 +5565,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5564,10 +5587,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5579,18 +5602,18 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5614,13 +5637,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5638,16 +5661,16 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
@@ -5667,10 +5690,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5693,16 +5716,16 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5752,7 +5775,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5781,10 +5804,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5795,7 +5818,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5807,15 +5830,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5864,16 +5889,16 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
@@ -5893,10 +5918,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5916,16 +5941,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5976,7 +6001,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5985,13 +6010,13 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -6005,10 +6030,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6019,7 +6044,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -6031,13 +6056,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6076,32 +6101,34 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -6115,14 +6142,12 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6131,7 +6156,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -6143,17 +6168,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6190,19 +6213,17 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6211,7 +6232,7 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>138</v>
@@ -6231,46 +6252,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6318,7 +6339,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6327,13 +6348,13 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -6347,42 +6368,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6430,22 +6455,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6459,10 +6484,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6470,7 +6495,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -6485,17 +6510,15 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6544,10 +6567,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>87</v>
@@ -6573,10 +6596,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6599,15 +6622,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6656,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6685,10 +6710,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6711,13 +6736,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6768,7 +6793,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6777,7 +6802,7 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
@@ -6797,10 +6822,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6820,16 +6845,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6880,7 +6905,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6889,13 +6914,13 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6909,10 +6934,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6923,7 +6948,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6935,13 +6960,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6980,32 +7005,34 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7019,14 +7046,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -7035,7 +7060,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -7047,17 +7072,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -7094,19 +7117,17 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7115,7 +7136,7 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>138</v>
@@ -7135,46 +7156,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D43" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7222,7 +7243,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7231,13 +7252,13 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -7251,42 +7272,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7334,22 +7359,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7363,10 +7388,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7374,7 +7399,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7389,13 +7414,13 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>326</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7446,10 +7471,10 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>87</v>
@@ -7475,10 +7500,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7501,13 +7526,13 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7558,7 +7583,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7587,10 +7612,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7598,7 +7623,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>
@@ -7613,17 +7638,15 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7648,13 +7671,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7672,10 +7695,10 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>87</v>
@@ -7712,7 +7735,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7724,10 +7747,10 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>340</v>
@@ -7735,7 +7758,9 @@
       <c r="M48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7760,13 +7785,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7784,10 +7809,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
@@ -7796,7 +7821,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7813,10 +7838,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7824,10 +7849,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7839,13 +7864,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7884,29 +7909,31 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7923,14 +7950,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7939,7 +7964,7 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7951,17 +7976,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7998,19 +8021,17 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8019,7 +8040,7 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>138</v>
@@ -8039,18 +8060,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -8065,15 +8088,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -8122,19 +8147,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -8151,10 +8176,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8162,10 +8187,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -8174,20 +8199,18 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8212,43 +8235,43 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -8276,7 +8299,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8326,13 +8349,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8353,7 +8376,7 @@
         <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -8379,10 +8402,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8405,15 +8428,17 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8438,13 +8463,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8462,7 +8487,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8491,10 +8516,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8517,17 +8542,15 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8576,7 +8599,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8585,10 +8608,10 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>370</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8619,7 +8642,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8628,18 +8651,20 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8688,22 +8713,22 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8717,10 +8742,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8731,7 +8756,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8743,13 +8768,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8788,32 +8813,34 @@
         <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8827,14 +8854,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8855,17 +8880,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8902,19 +8925,17 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8923,7 +8944,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>138</v>
@@ -8943,14 +8964,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D59" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8963,26 +8986,24 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9039,13 +9060,13 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9059,42 +9080,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9118,13 +9143,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -9142,22 +9167,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9171,10 +9196,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9182,7 +9207,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -9194,16 +9219,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9230,13 +9255,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9254,10 +9279,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>87</v>
@@ -9283,10 +9308,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9306,16 +9331,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9366,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9395,10 +9420,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9418,16 +9443,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9478,7 +9503,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9490,10 +9515,10 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9507,21 +9532,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9533,17 +9558,15 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9592,19 +9615,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>85</v>
@@ -9621,14 +9644,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9641,26 +9664,24 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9708,7 +9729,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9723,7 +9744,7 @@
         <v>138</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9737,44 +9758,46 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9822,22 +9845,22 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9851,10 +9874,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9865,7 +9888,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9877,15 +9900,17 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9910,13 +9935,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9934,13 +9959,13 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
@@ -9963,10 +9988,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9977,7 +10002,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9986,16 +10011,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10022,13 +10047,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -10046,13 +10071,13 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
@@ -10075,10 +10100,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10089,7 +10114,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -10098,20 +10123,18 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -10160,19 +10183,19 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>411</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -10189,10 +10212,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10203,7 +10226,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10212,18 +10235,20 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>285</v>
+        <v>414</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10272,22 +10297,22 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10301,21 +10326,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10327,17 +10352,15 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10386,19 +10409,19 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>85</v>
@@ -10415,14 +10438,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10435,26 +10458,24 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10502,7 +10523,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10517,7 +10538,7 @@
         <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10531,42 +10552,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10590,13 +10615,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10614,22 +10639,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10643,10 +10668,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10654,7 +10679,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -10669,7 +10694,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>421</v>
+        <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>422</v>
@@ -10677,9 +10702,7 @@
       <c r="M74" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10704,13 +10727,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10728,10 +10751,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>87</v>
@@ -10757,10 +10780,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10771,7 +10794,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10783,16 +10806,16 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10842,13 +10865,13 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
@@ -10871,10 +10894,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10885,7 +10908,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10894,18 +10917,20 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>229</v>
+        <v>427</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10954,13 +10979,13 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
@@ -10983,10 +11008,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10997,7 +11022,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -11009,17 +11034,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -11068,13 +11091,13 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
@@ -11097,10 +11120,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11111,7 +11134,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -11123,15 +11146,17 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>285</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -11180,22 +11205,22 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>287</v>
+        <v>438</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11209,21 +11234,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -11235,17 +11260,15 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -11294,19 +11317,19 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
@@ -11323,14 +11346,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11343,26 +11366,24 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11410,7 +11431,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11425,7 +11446,7 @@
         <v>138</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11439,42 +11460,46 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11498,13 +11523,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11522,22 +11547,22 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>439</v>
+        <v>305</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11551,10 +11576,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11562,7 +11587,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>87</v>
@@ -11577,18 +11602,16 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11612,13 +11635,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -11636,10 +11659,10 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>87</v>
@@ -11665,10 +11688,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11691,18 +11714,18 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11726,13 +11749,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11750,7 +11773,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11805,7 +11828,7 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>455</v>
@@ -11840,13 +11863,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11893,10 +11916,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11919,16 +11942,16 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11978,7 +12001,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12007,10 +12030,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12033,16 +12056,16 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12092,7 +12115,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12121,10 +12144,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12147,16 +12170,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12182,31 +12205,31 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12235,10 +12258,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12261,16 +12284,16 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12296,13 +12319,13 @@
         <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>77</v>
@@ -12320,7 +12343,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12349,10 +12372,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12375,16 +12398,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12410,31 +12433,31 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12463,10 +12486,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12477,7 +12500,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -12492,12 +12515,14 @@
         <v>107</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12522,13 +12547,13 @@
         <v>77</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>77</v>
@@ -12546,13 +12571,13 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
@@ -12575,10 +12600,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12601,17 +12626,15 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12636,13 +12659,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12660,7 +12683,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12689,10 +12712,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12715,16 +12738,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12774,7 +12797,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12803,10 +12826,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12829,16 +12852,16 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12888,7 +12911,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12917,10 +12940,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12931,7 +12954,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12943,15 +12966,17 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>285</v>
+        <v>499</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -13000,22 +13025,22 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>287</v>
+        <v>498</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13029,21 +13054,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -13055,17 +13080,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -13114,19 +13137,19 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>85</v>
@@ -13143,14 +13166,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13163,26 +13186,24 @@
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13230,7 +13251,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13245,7 +13266,7 @@
         <v>138</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13259,44 +13280,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>500</v>
+        <v>303</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>501</v>
+        <v>304</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13344,22 +13367,22 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>499</v>
+        <v>305</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13373,10 +13396,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13384,7 +13407,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>87</v>
@@ -13399,16 +13422,16 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>504</v>
+        <v>179</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13458,10 +13481,10 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>87</v>
@@ -13487,10 +13510,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13498,7 +13521,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>87</v>
@@ -13513,16 +13536,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>107</v>
+        <v>510</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13548,13 +13571,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>513</v>
+        <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13572,10 +13595,10 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>87</v>
@@ -13612,7 +13635,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>87</v>
@@ -13627,7 +13650,7 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>515</v>
@@ -13635,7 +13658,9 @@
       <c r="M100" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13660,13 +13685,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13687,7 +13712,7 @@
         <v>514</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>87</v>
@@ -13713,10 +13738,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13727,7 +13752,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -13736,20 +13761,18 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13798,13 +13821,13 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
@@ -13827,10 +13850,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13841,7 +13864,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13850,18 +13873,20 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>285</v>
+        <v>524</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13910,22 +13935,22 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>287</v>
+        <v>523</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13939,21 +13964,21 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -13965,17 +13990,15 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -14024,19 +14047,19 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>85</v>
@@ -14053,14 +14076,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14073,26 +14096,24 @@
         <v>77</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
@@ -14140,7 +14161,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14155,7 +14176,7 @@
         <v>138</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14169,44 +14190,46 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>525</v>
+        <v>303</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>526</v>
+        <v>304</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
       </c>
@@ -14254,22 +14277,22 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>524</v>
+        <v>305</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14283,10 +14306,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14309,16 +14332,16 @@
         <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>529</v>
+        <v>179</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14368,7 +14391,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>87</v>
@@ -14397,10 +14420,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14408,7 +14431,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>87</v>
@@ -14420,18 +14443,20 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>229</v>
+        <v>535</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -14480,10 +14505,10 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>87</v>
@@ -14509,10 +14534,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14523,7 +14548,7 @@
         <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>77</v>
@@ -14535,13 +14560,13 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>433</v>
+        <v>540</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14592,13 +14617,13 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>77</v>
@@ -14621,10 +14646,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14635,7 +14660,7 @@
         <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -14647,13 +14672,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>285</v>
+        <v>439</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>286</v>
+        <v>543</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14704,22 +14729,22 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>287</v>
+        <v>542</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14733,21 +14758,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>77</v>
@@ -14759,17 +14784,15 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -14818,19 +14841,19 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>85</v>
@@ -14847,14 +14870,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14867,26 +14890,24 @@
         <v>77</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14934,7 +14955,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14949,7 +14970,7 @@
         <v>138</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14963,42 +14984,46 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>542</v>
+        <v>303</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
       </c>
@@ -15022,13 +15047,13 @@
         <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>544</v>
+        <v>77</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>545</v>
+        <v>77</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>77</v>
@@ -15046,22 +15071,22 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>541</v>
+        <v>305</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15075,10 +15100,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15086,7 +15111,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>87</v>
@@ -15101,13 +15126,13 @@
         <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>445</v>
+        <v>548</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15134,13 +15159,13 @@
         <v>77</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -15158,10 +15183,10 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>87</v>
@@ -15187,10 +15212,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15201,7 +15226,7 @@
         <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>77</v>
@@ -15213,17 +15238,15 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -15272,13 +15295,13 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>77</v>
@@ -15301,10 +15324,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15324,19 +15347,19 @@
         <v>77</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15386,7 +15409,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15415,10 +15438,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15438,19 +15461,19 @@
         <v>77</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15500,7 +15523,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15529,10 +15552,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15552,19 +15575,19 @@
         <v>77</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>281</v>
+        <v>563</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -15614,7 +15637,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15623,7 +15646,7 @@
         <v>79</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>99</v>
@@ -15643,10 +15666,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15657,7 +15680,7 @@
         <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>77</v>
@@ -15666,18 +15689,20 @@
         <v>77</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>285</v>
+        <v>568</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15726,22 +15751,22 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -15755,10 +15780,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15769,7 +15794,7 @@
         <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>77</v>
@@ -15781,13 +15806,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15826,32 +15851,34 @@
         <v>77</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC119" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
@@ -15865,14 +15892,12 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>77</v>
       </c>
@@ -15893,17 +15918,15 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>569</v>
+        <v>132</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>570</v>
+        <v>133</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15940,19 +15963,17 @@
         <v>77</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC120" s="2"/>
       <c r="AD120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15961,7 +15982,7 @@
         <v>79</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>138</v>
@@ -15981,14 +16002,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="D121" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16001,26 +16024,24 @@
         <v>77</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>132</v>
+        <v>575</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>297</v>
+        <v>576</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>298</v>
+        <v>569</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>77</v>
       </c>
@@ -16068,7 +16089,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16077,13 +16098,13 @@
         <v>79</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16097,14 +16118,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>574</v>
+        <v>302</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16117,22 +16138,26 @@
         <v>77</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>575</v>
+        <v>303</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>77</v>
       </c>
@@ -16180,7 +16205,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>573</v>
+        <v>305</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16192,10 +16217,10 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
@@ -16209,21 +16234,21 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>77</v>
+        <v>580</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
@@ -16235,13 +16260,13 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>285</v>
+        <v>581</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>286</v>
+        <v>582</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16292,22 +16317,22 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>287</v>
+        <v>579</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16321,21 +16346,21 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -16347,17 +16372,15 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -16406,19 +16429,19 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>85</v>
@@ -16435,14 +16458,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -16455,26 +16478,24 @@
         <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16522,7 +16543,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16537,7 +16558,7 @@
         <v>138</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16551,42 +16572,46 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>581</v>
+        <v>132</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>582</v>
+        <v>303</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
       </c>
@@ -16610,13 +16635,13 @@
         <v>77</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>584</v>
+        <v>77</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>585</v>
+        <v>77</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>77</v>
@@ -16634,22 +16659,22 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>580</v>
+        <v>305</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -16689,13 +16714,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>326</v>
+        <v>587</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16722,13 +16747,13 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>77</v>
+        <v>590</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>77</v>
+        <v>591</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>77</v>
@@ -16775,10 +16800,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16786,7 +16811,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>87</v>
@@ -16801,17 +16826,15 @@
         <v>77</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>590</v>
+        <v>332</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -16860,10 +16883,10 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>87</v>
@@ -16889,10 +16912,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16915,15 +16938,17 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>229</v>
+        <v>596</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -16972,7 +16997,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -17001,10 +17026,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17015,7 +17040,7 @@
         <v>78</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>77</v>
@@ -17024,20 +17049,18 @@
         <v>77</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -17086,13 +17109,13 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>77</v>
@@ -17115,10 +17138,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17129,7 +17152,7 @@
         <v>78</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>77</v>
@@ -17138,18 +17161,20 @@
         <v>77</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>285</v>
+        <v>604</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -17198,22 +17223,22 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>287</v>
+        <v>603</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17227,21 +17252,21 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>77</v>
@@ -17253,17 +17278,15 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>77</v>
@@ -17312,19 +17335,19 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>85</v>
@@ -17341,14 +17364,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17361,26 +17384,24 @@
         <v>77</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>298</v>
+        <v>399</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>77</v>
       </c>
@@ -17428,7 +17449,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -17443,7 +17464,7 @@
         <v>138</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17457,42 +17478,46 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>605</v>
+        <v>303</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17516,13 +17541,13 @@
         <v>77</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>607</v>
+        <v>77</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>608</v>
+        <v>77</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>77</v>
@@ -17540,22 +17565,22 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>604</v>
+        <v>305</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17569,10 +17594,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17595,7 +17620,7 @@
         <v>88</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>610</v>
+        <v>107</v>
       </c>
       <c r="L135" t="s" s="2">
         <v>611</v>
@@ -17628,13 +17653,13 @@
         <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>77</v>
+        <v>613</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>77</v>
+        <v>614</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>77</v>
@@ -17652,7 +17677,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>87</v>
@@ -17681,10 +17706,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17692,10 +17717,10 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>77</v>
@@ -17707,13 +17732,13 @@
         <v>88</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>281</v>
+        <v>616</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17764,16 +17789,16 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>99</v>
@@ -17793,10 +17818,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17807,7 +17832,7 @@
         <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>77</v>
@@ -17816,16 +17841,16 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>285</v>
+        <v>620</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>286</v>
+        <v>621</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17876,22 +17901,22 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>287</v>
+        <v>619</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>77</v>
@@ -17905,10 +17930,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -17919,7 +17944,7 @@
         <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>77</v>
@@ -17931,13 +17956,13 @@
         <v>77</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -17976,32 +18001,34 @@
         <v>77</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC138" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>77</v>
@@ -18015,14 +18042,12 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
         <v>77</v>
       </c>
@@ -18043,17 +18068,15 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>620</v>
+        <v>132</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>621</v>
+        <v>133</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>77</v>
@@ -18090,19 +18113,17 @@
         <v>77</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC139" s="2"/>
       <c r="AD139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
@@ -18111,7 +18132,7 @@
         <v>79</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>138</v>
@@ -18131,14 +18152,16 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="D140" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -18151,26 +18174,24 @@
         <v>77</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>132</v>
+        <v>626</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>297</v>
+        <v>627</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>77</v>
       </c>
@@ -18218,7 +18239,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -18227,13 +18248,13 @@
         <v>79</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>77</v>
@@ -18247,42 +18268,46 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>625</v>
+        <v>303</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
       </c>
@@ -18306,13 +18331,13 @@
         <v>77</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>627</v>
+        <v>77</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>628</v>
+        <v>77</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>77</v>
@@ -18330,22 +18355,22 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>624</v>
+        <v>305</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18359,10 +18384,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18370,7 +18395,7 @@
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>87</v>
@@ -18382,16 +18407,16 @@
         <v>77</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18418,13 +18443,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>77</v>
+        <v>633</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>77</v>
+        <v>634</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -18442,10 +18467,10 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>87</v>
@@ -18471,10 +18496,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18482,7 +18507,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>87</v>
@@ -18494,20 +18519,18 @@
         <v>77</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -18556,10 +18579,10 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>87</v>
@@ -18580,6 +18603,120 @@
         <v>77</v>
       </c>
       <c r="AN143" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CapabilityStatement.xlsx
+++ b/StructureDefinition-profile-CapabilityStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5121" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.741878-06:00</t>
+    <t>2026-02-21T13:36:54.1400626-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.identifier}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.identifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>acceptLanguage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.acceptLanguage}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.acceptLanguage|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -486,46 +486,6 @@
   </si>
   <si>
     <t>Element `CapabilityStatement.acceptLanguage` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CapabilityStatement.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `CapabilityStatement.copyrightLabel` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CapabilityStatement.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `CapabilityStatement.versionAlgorithm[x]` has a context of CapabilityStatement based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
   </si>
   <si>
     <t>CapabilityStatement.modifierExtension</t>
@@ -941,23 +901,13 @@
     <t>CapabilityStatement.software.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.software.extension:software</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.software}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.software from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.software` has is mapped to FHIR R4 element `CapabilityStatement.software`, but has no comparisons.</t>
   </si>
   <si>
     <t>CapabilityStatement.software.modifierExtension</t>
@@ -1026,22 +976,6 @@
     <t>CapabilityStatement.implementation.extension</t>
   </si>
   <si>
-    <t>CapabilityStatement.implementation.extension:implementation</t>
-  </si>
-  <si>
-    <t>implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.implementation}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.implementation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.implementation` has is mapped to FHIR R4 element `CapabilityStatement.implementation`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>CapabilityStatement.implementation.modifierExtension</t>
   </si>
   <si>
@@ -1116,14 +1050,14 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.fhirVersion}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.fhirVersion|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CapabilityStatement.fhirVersion from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `CapabilityStatement.fhirVersion` has is mapped to FHIR R4 element `CapabilityStatement.fhirVersion`, but has no comparisons.</t>
+    <t>Element `CapabilityStatement.fhirVersion` is mapped to FHIR R4 element `CapabilityStatement.fhirVersion` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>CapabilityStatement.fhirVersion.value</t>
@@ -1204,22 +1138,6 @@
     <t>CapabilityStatement.rest.extension</t>
   </si>
   <si>
-    <t>CapabilityStatement.rest.extension:rest</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.rest}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.rest from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.rest` has is mapped to FHIR R4 element `CapabilityStatement.rest`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>CapabilityStatement.rest.modifierExtension</t>
   </si>
   <si>
@@ -1260,12 +1178,6 @@
   </si>
   <si>
     <t>CapabilityStatement.rest.security.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CapabilityStatement.rest.security.modifierExtension</t>
@@ -1329,6 +1241,25 @@
     <t>CapabilityStatement.rest.resource.extension</t>
   </si>
   <si>
+    <t>CapabilityStatement.rest.resource.extension:conditionalPatch</t>
+  </si>
+  <si>
+    <t>conditionalPatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.rest.resource.conditionalPatch|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CapabilityStatement.rest.resource.conditionalPatch from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A flag that indicates that the server supports conditional patch.</t>
+  </si>
+  <si>
+    <t>Element `CapabilityStatement.rest.resource.conditionalPatch` has a context of CapabilityStatement.rest.resource based on following the parent source element upwards and mapping to `CapabilityStatement`.</t>
+  </si>
+  <si>
     <t>CapabilityStatement.rest.resource.modifierExtension</t>
   </si>
   <si>
@@ -1345,6 +1276,31 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>CapabilityStatement.rest.resource.type.id</t>
+  </si>
+  <si>
+    <t>CapabilityStatement.rest.resource.type.extension</t>
+  </si>
+  <si>
+    <t>CapabilityStatement.rest.resource.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.rest.resource.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CapabilityStatement.rest.resource.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CapabilityStatement.rest.resource.type` is mapped to FHIR R4 element `CapabilityStatement.rest.resource.type` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>CapabilityStatement.rest.resource.type.value</t>
   </si>
   <si>
     <t>CapabilityStatement.rest.resource.profile</t>
@@ -1793,22 +1749,6 @@
     <t>CapabilityStatement.messaging.extension</t>
   </si>
   <si>
-    <t>CapabilityStatement.messaging.extension:messaging</t>
-  </si>
-  <si>
-    <t>messaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.messaging}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.messaging from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.messaging` has is mapped to FHIR R4 element `CapabilityStatement.messaging`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>CapabilityStatement.messaging.modifierExtension</t>
   </si>
   <si>
@@ -1949,22 +1889,6 @@
   </si>
   <si>
     <t>CapabilityStatement.document.extension</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.document.extension:document</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CapabilityStatement.document}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CapabilityStatement.document from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CapabilityStatement.document` has is mapped to FHIR R4 element `CapabilityStatement.document`, but has no comparisons.</t>
   </si>
   <si>
     <t>CapabilityStatement.document.modifierExtension</t>
@@ -2310,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN144"/>
+  <dimension ref="A1:AN142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2321,7 +2245,7 @@
   <cols>
     <col min="1" max="1" width="57.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="57.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2329,7 +2253,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3625,43 +3549,43 @@
         <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3709,7 +3633,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3724,7 +3648,7 @@
         <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3738,14 +3662,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>159</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3763,21 +3685,23 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3825,28 +3749,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3854,46 +3778,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3941,28 +3863,28 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3970,10 +3892,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3996,19 +3918,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -4057,7 +3979,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4066,7 +3988,7 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>99</v>
@@ -4075,10 +3997,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -4086,10 +4008,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4112,7 +4034,7 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
@@ -4171,7 +4093,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4192,7 +4114,7 @@
         <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -4200,10 +4122,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4211,7 +4133,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -4220,26 +4142,24 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -4263,13 +4183,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -4287,16 +4207,16 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -4305,10 +4225,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4316,10 +4236,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4342,18 +4262,20 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4401,7 +4323,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4419,10 +4341,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4430,14 +4352,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4450,22 +4372,22 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4491,31 +4413,31 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -4533,10 +4455,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4544,10 +4466,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4570,19 +4492,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4631,7 +4553,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4649,10 +4571,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4660,21 +4582,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4686,16 +4608,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4745,13 +4667,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4763,10 +4685,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4774,10 +4696,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4797,23 +4719,21 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4861,7 +4781,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4870,7 +4790,7 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>99</v>
@@ -4879,10 +4799,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4890,10 +4810,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4916,18 +4836,20 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4975,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4993,7 +4915,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -5004,10 +4926,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5018,7 +4940,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -5027,19 +4949,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5065,13 +4987,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -5089,16 +5011,16 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -5107,7 +5029,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -5118,10 +5040,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5132,7 +5054,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -5141,23 +5063,21 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5205,13 +5125,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -5223,32 +5143,32 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -5257,21 +5177,21 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5295,13 +5215,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5319,13 +5239,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -5337,21 +5257,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5359,7 +5279,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -5371,21 +5291,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5409,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5433,16 +5353,16 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
@@ -5451,32 +5371,32 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -5485,21 +5405,21 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
         <v>268</v>
       </c>
+      <c r="N28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5547,13 +5467,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -5565,13 +5485,13 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -5587,10 +5507,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5602,7 +5522,7 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>271</v>
@@ -5610,10 +5530,10 @@
       <c r="M29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>273</v>
       </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5637,13 +5557,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5664,13 +5584,13 @@
         <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
@@ -5690,10 +5610,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5704,7 +5624,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5716,17 +5636,15 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5775,16 +5693,16 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -5804,10 +5722,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5818,7 +5736,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5827,20 +5745,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5889,22 +5805,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5918,21 +5834,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5941,18 +5857,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -6001,22 +5919,22 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -6030,42 +5948,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -6113,22 +6035,22 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -6142,10 +6064,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6153,10 +6075,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -6165,16 +6087,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6213,29 +6135,31 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -6252,14 +6176,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6277,19 +6199,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6339,19 +6261,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -6368,46 +6290,42 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6455,22 +6373,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6484,10 +6402,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6495,7 +6413,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -6510,13 +6428,13 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6567,16 +6485,16 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
@@ -6596,10 +6514,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6619,20 +6537,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6681,7 +6597,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6693,10 +6609,10 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6710,21 +6626,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6733,18 +6649,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6793,22 +6711,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6822,42 +6740,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6905,22 +6827,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6934,10 +6856,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6945,7 +6867,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
@@ -6957,16 +6879,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7017,10 +6939,10 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>87</v>
@@ -7029,10 +6951,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7046,10 +6968,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7060,7 +6982,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -7069,16 +6991,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7117,29 +7039,31 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -7156,14 +7080,12 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7181,20 +7103,18 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7243,19 +7163,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -7272,46 +7192,44 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7335,13 +7253,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7359,22 +7277,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7388,10 +7306,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7399,7 +7317,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7411,16 +7329,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7471,10 +7389,10 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>87</v>
@@ -7483,7 +7401,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7500,10 +7418,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7511,10 +7429,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7523,16 +7441,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>332</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7571,31 +7489,29 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7612,18 +7528,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>
@@ -7635,18 +7553,20 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7695,19 +7615,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7724,10 +7644,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7735,7 +7655,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7747,20 +7667,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7785,13 +7703,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7809,10 +7727,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
@@ -7821,7 +7739,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7838,10 +7756,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7849,10 +7767,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7861,18 +7779,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7897,13 +7817,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7921,19 +7841,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7950,10 +7870,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7961,7 +7881,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7973,18 +7893,20 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -8009,29 +7931,31 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8043,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -8060,23 +7984,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -8085,20 +8007,18 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -8147,7 +8067,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8156,10 +8076,10 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -8176,10 +8096,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8190,7 +8110,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -8199,18 +8119,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8259,19 +8181,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -8299,10 +8221,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -8311,20 +8233,18 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8349,13 +8269,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8373,22 +8293,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8402,14 +8322,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8425,19 +8345,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8463,13 +8383,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8487,7 +8407,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8499,10 +8419,10 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8516,14 +8436,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8536,22 +8456,26 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8599,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8611,10 +8535,10 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8628,10 +8552,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8639,10 +8563,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8654,17 +8578,15 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8689,13 +8611,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8713,19 +8635,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>376</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8742,10 +8664,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8768,13 +8690,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8825,7 +8747,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8837,10 +8759,10 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8854,10 +8776,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8868,7 +8790,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8877,16 +8799,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8925,29 +8847,31 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>295</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8964,14 +8888,12 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8980,7 +8902,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8992,17 +8914,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -9051,22 +8971,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9080,14 +9000,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9100,26 +9020,24 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9167,7 +9085,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9182,7 +9100,7 @@
         <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9196,42 +9114,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -9255,13 +9177,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -9279,22 +9201,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9308,10 +9230,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9331,18 +9253,20 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9391,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9420,10 +9344,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9434,7 +9358,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -9446,13 +9370,13 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9479,13 +9403,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -9503,13 +9427,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -9532,10 +9456,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9558,13 +9482,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9615,7 +9539,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>293</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9627,10 +9551,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9644,14 +9568,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9667,19 +9591,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>168</v>
+        <v>389</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9729,7 +9653,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9741,10 +9665,10 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9758,46 +9682,42 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9845,22 +9765,22 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9874,10 +9794,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9888,7 +9808,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9897,20 +9817,18 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9947,31 +9865,29 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>401</v>
+        <v>285</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9988,12 +9904,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -10002,7 +9920,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -10011,18 +9929,20 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>249</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -10047,13 +9967,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -10071,7 +9991,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10080,10 +10000,10 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -10100,42 +10020,46 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>288</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10183,22 +10107,22 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10212,10 +10136,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10223,10 +10147,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10238,17 +10162,15 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10273,13 +10195,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10297,19 +10219,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>417</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -10326,10 +10248,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10352,13 +10274,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10409,7 +10331,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10424,7 +10346,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10438,18 +10360,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10467,14 +10389,12 @@
         <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10511,19 +10431,17 @@
         <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10538,7 +10456,7 @@
         <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10552,46 +10470,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D73" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>303</v>
+        <v>410</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10639,7 +10557,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10648,13 +10566,13 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10668,10 +10586,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10679,7 +10597,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>87</v>
@@ -10691,16 +10609,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>335</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10727,13 +10645,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10751,10 +10669,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>87</v>
@@ -10763,7 +10681,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10780,10 +10698,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10806,16 +10724,16 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10865,7 +10783,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10894,10 +10812,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10920,16 +10838,16 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10979,7 +10897,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11008,10 +10926,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11034,13 +10952,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11091,7 +11009,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11120,10 +11038,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11146,16 +11064,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11205,7 +11123,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11234,10 +11152,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11260,13 +11178,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11317,7 +11235,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11346,14 +11264,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11375,13 +11293,13 @@
         <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11431,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11460,14 +11378,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11489,16 +11407,16 @@
         <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11547,7 +11465,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11576,10 +11494,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11605,10 +11523,10 @@
         <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11635,13 +11553,13 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
@@ -11659,7 +11577,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>87</v>
@@ -11688,10 +11606,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11714,17 +11632,17 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11773,7 +11691,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11802,10 +11720,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11831,13 +11749,13 @@
         <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11863,13 +11781,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11887,7 +11805,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11916,10 +11834,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11942,16 +11860,16 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12001,7 +11919,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12030,10 +11948,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12056,16 +11974,16 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12115,7 +12033,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12144,10 +12062,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12170,16 +12088,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12229,7 +12147,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12258,10 +12176,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12287,13 +12205,13 @@
         <v>107</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12319,13 +12237,13 @@
         <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>77</v>
@@ -12343,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12372,10 +12290,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12398,16 +12316,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12457,7 +12375,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12486,10 +12404,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12515,13 +12433,13 @@
         <v>107</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12547,13 +12465,13 @@
         <v>77</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>77</v>
@@ -12571,7 +12489,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12600,10 +12518,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12629,10 +12547,10 @@
         <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12659,13 +12577,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12683,7 +12601,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12712,10 +12630,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12738,16 +12656,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12797,7 +12715,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12826,10 +12744,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12852,16 +12770,16 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12911,7 +12829,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12940,10 +12858,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12966,16 +12884,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13025,7 +12943,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13054,10 +12972,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13080,13 +12998,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13137,7 +13055,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13166,14 +13084,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13195,13 +13113,13 @@
         <v>132</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13251,7 +13169,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13280,14 +13198,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13309,16 +13227,16 @@
         <v>132</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -13367,7 +13285,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13396,10 +13314,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13422,16 +13340,16 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13481,7 +13399,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>87</v>
@@ -13510,10 +13428,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13536,16 +13454,16 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13595,7 +13513,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13624,10 +13542,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13653,13 +13571,13 @@
         <v>107</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13685,13 +13603,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13709,7 +13627,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>87</v>
@@ -13738,10 +13656,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13764,13 +13682,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13821,7 +13739,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13850,10 +13768,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13876,16 +13794,16 @@
         <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13935,7 +13853,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13964,10 +13882,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13990,13 +13908,13 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14047,7 +13965,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14076,14 +13994,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14105,13 +14023,13 @@
         <v>132</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14161,7 +14079,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14190,14 +14108,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14219,16 +14137,16 @@
         <v>132</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -14277,7 +14195,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14306,10 +14224,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14332,16 +14250,16 @@
         <v>88</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14391,7 +14309,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>87</v>
@@ -14420,10 +14338,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14446,16 +14364,16 @@
         <v>88</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14505,7 +14423,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>87</v>
@@ -14534,10 +14452,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14560,13 +14478,13 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14617,7 +14535,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14646,10 +14564,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14672,13 +14590,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14729,7 +14647,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14758,10 +14676,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14784,13 +14702,13 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14841,7 +14759,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14870,14 +14788,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14899,13 +14817,13 @@
         <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14955,7 +14873,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14984,14 +14902,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15013,16 +14931,16 @@
         <v>132</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
@@ -15071,7 +14989,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15100,10 +15018,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15129,10 +15047,10 @@
         <v>107</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15159,13 +15077,13 @@
         <v>77</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -15183,7 +15101,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>87</v>
@@ -15212,10 +15130,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15238,13 +15156,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15295,7 +15213,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15324,10 +15242,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15353,13 +15271,13 @@
         <v>80</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15409,7 +15327,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15438,10 +15356,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15467,13 +15385,13 @@
         <v>80</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15523,7 +15441,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15552,10 +15470,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15578,16 +15496,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -15637,7 +15555,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15666,10 +15584,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15692,16 +15610,16 @@
         <v>88</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15751,7 +15669,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -15760,7 +15678,7 @@
         <v>79</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>99</v>
@@ -15780,10 +15698,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15806,13 +15724,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15863,7 +15781,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15892,14 +15810,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -15921,12 +15839,14 @@
         <v>132</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15963,17 +15883,19 @@
         <v>77</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC120" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15988,7 +15910,7 @@
         <v>138</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16002,16 +15924,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16024,24 +15944,26 @@
         <v>77</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>575</v>
+        <v>132</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>569</v>
+        <v>289</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
       </c>
@@ -16089,7 +16011,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16098,13 +16020,13 @@
         <v>79</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16118,14 +16040,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>302</v>
+        <v>562</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16138,26 +16060,22 @@
         <v>77</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>303</v>
+        <v>563</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>77</v>
       </c>
@@ -16205,7 +16123,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>305</v>
+        <v>561</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16217,10 +16135,10 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
@@ -16234,21 +16152,21 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>580</v>
+        <v>77</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
@@ -16260,13 +16178,13 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>581</v>
+        <v>279</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>582</v>
+        <v>280</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16317,22 +16235,22 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>579</v>
+        <v>281</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16346,21 +16264,21 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -16372,15 +16290,17 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -16429,19 +16349,19 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>85</v>
@@ -16458,14 +16378,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -16478,24 +16398,26 @@
         <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16543,7 +16465,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16558,7 +16480,7 @@
         <v>138</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
@@ -16572,46 +16494,42 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>132</v>
+        <v>569</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>303</v>
+        <v>570</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>77</v>
       </c>
@@ -16635,13 +16553,13 @@
         <v>77</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>77</v>
+        <v>572</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>77</v>
+        <v>573</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>77</v>
@@ -16659,22 +16577,22 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>305</v>
+        <v>568</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
@@ -16688,10 +16606,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16714,13 +16632,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>587</v>
+        <v>312</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16747,13 +16665,13 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>590</v>
+        <v>77</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>591</v>
+        <v>77</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>77</v>
@@ -16771,7 +16689,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>87</v>
@@ -16800,10 +16718,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16811,7 +16729,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>87</v>
@@ -16826,15 +16744,17 @@
         <v>77</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>332</v>
+        <v>578</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N128" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -16883,10 +16803,10 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>87</v>
@@ -16912,10 +16832,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16938,17 +16858,15 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>596</v>
+        <v>223</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -16997,7 +16915,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -17026,10 +16944,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17040,7 +16958,7 @@
         <v>78</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>77</v>
@@ -17049,18 +16967,20 @@
         <v>77</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -17109,13 +17029,13 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>77</v>
@@ -17138,10 +17058,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17152,7 +17072,7 @@
         <v>78</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>77</v>
@@ -17161,20 +17081,18 @@
         <v>77</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>604</v>
+        <v>279</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -17223,22 +17141,22 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>603</v>
+        <v>281</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>77</v>
@@ -17252,21 +17170,21 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>77</v>
@@ -17278,15 +17196,17 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>77</v>
@@ -17335,19 +17255,19 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>85</v>
@@ -17364,14 +17284,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17384,24 +17304,26 @@
         <v>77</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O133" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
       </c>
@@ -17449,7 +17371,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -17464,7 +17386,7 @@
         <v>138</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>77</v>
@@ -17478,46 +17400,42 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>77</v>
       </c>
@@ -17541,13 +17459,13 @@
         <v>77</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>77</v>
+        <v>595</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>77</v>
@@ -17565,22 +17483,22 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>305</v>
+        <v>592</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>77</v>
@@ -17594,10 +17512,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17620,13 +17538,13 @@
         <v>88</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>107</v>
+        <v>598</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -17653,13 +17571,13 @@
         <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>613</v>
+        <v>77</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>77</v>
@@ -17677,7 +17595,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>87</v>
@@ -17706,10 +17624,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17717,10 +17635,10 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>77</v>
@@ -17732,13 +17650,13 @@
         <v>88</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>616</v>
+        <v>275</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -17789,16 +17707,16 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>99</v>
@@ -17818,10 +17736,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17832,7 +17750,7 @@
         <v>78</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>77</v>
@@ -17841,16 +17759,16 @@
         <v>77</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>620</v>
+        <v>279</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>621</v>
+        <v>280</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -17901,22 +17819,22 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>619</v>
+        <v>281</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>77</v>
@@ -17930,21 +17848,21 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>77</v>
@@ -17956,15 +17874,17 @@
         <v>77</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -18013,19 +17933,19 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>85</v>
@@ -18042,14 +17962,14 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -18062,22 +17982,26 @@
         <v>77</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>77</v>
       </c>
@@ -18113,17 +18037,19 @@
         <v>77</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC139" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD139" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
@@ -18138,7 +18064,7 @@
         <v>138</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>77</v>
@@ -18152,23 +18078,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>77</v>
@@ -18177,20 +18101,18 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>626</v>
+        <v>107</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>77</v>
@@ -18215,13 +18137,13 @@
         <v>77</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>77</v>
+        <v>610</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>77</v>
+        <v>611</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>77</v>
@@ -18239,19 +18161,19 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>295</v>
+        <v>607</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>77</v>
@@ -18268,46 +18190,42 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>303</v>
+        <v>613</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>77</v>
       </c>
@@ -18355,22 +18273,22 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>305</v>
+        <v>612</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>77</v>
@@ -18384,10 +18302,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18410,15 +18328,17 @@
         <v>88</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>77</v>
@@ -18443,13 +18363,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>633</v>
+        <v>77</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>634</v>
+        <v>77</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -18467,7 +18387,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>87</v>
@@ -18491,232 +18411,6 @@
         <v>77</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="O144" s="2"/>
-      <c r="P144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q144" s="2"/>
-      <c r="R144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN144" t="s" s="2">
         <v>77</v>
       </c>
     </row>
